--- a/SMARTS/Data_Dictionaries/Stormwater_Industrial_Monitoring_DataDictionary.xlsx
+++ b/SMARTS/Data_Dictionaries/Stormwater_Industrial_Monitoring_DataDictionary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawaterboards-my.sharepoint.com/personal/david_altare_waterboards_ca_gov/Documents/projects/CA_data_portal/SMARTS/Data_Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{0B0F2617-947D-48DE-B3CA-1CD06A08E0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B4C8F9-9195-4A8B-9815-A0CC6687B9CB}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{0B0F2617-947D-48DE-B3CA-1CD06A08E0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05B2FBA0-F5D5-4DB5-ADDE-8EF036CBABDC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA1BC090-5ABE-44CD-AF01-7218500D7CAD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Industrial_Facilities" sheetId="1" r:id="rId1"/>
+    <sheet name="Industrial_Monitoring" sheetId="1" r:id="rId1"/>
+    <sheet name="Ind_Ad_Hoc_SMARTS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
-  <si>
-    <t>Regulatory Measure Type (Permit Type)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="119">
   <si>
     <t>PERMIT_TYPE</t>
   </si>
@@ -44,24 +42,12 @@
     <t>Type of permit or application.</t>
   </si>
   <si>
-    <t>Regulatory Measure ID (Application ID)</t>
-  </si>
-  <si>
     <t>APP_ID</t>
   </si>
   <si>
-    <t>A unique Identification number associated with a storm water application.  Universal number used to link the application to inspections, violations, and enforcement actions.</t>
-  </si>
-  <si>
-    <t>Waste Discharge ID</t>
-  </si>
-  <si>
     <t>WDID</t>
   </si>
   <si>
-    <t xml:space="preserve">Identification number associated with a waste discharge. </t>
-  </si>
-  <si>
     <t>column</t>
   </si>
   <si>
@@ -89,9 +75,6 @@
     <t>REPORTING_YEAR</t>
   </si>
   <si>
-    <t>Reporting year the sample was collected in.</t>
-  </si>
-  <si>
     <t>Report ID</t>
   </si>
   <si>
@@ -104,48 +87,30 @@
     <t>MONITORING_LOCATION_NAME</t>
   </si>
   <si>
-    <t>Name of the monitoring location at the regulated facility/site.</t>
-  </si>
-  <si>
     <t>Monitoring Location Type</t>
   </si>
   <si>
     <t>MONITORING_LOCATION_TYPE</t>
   </si>
   <si>
-    <t>Type of monitoring location at the regulated facility/site.</t>
-  </si>
-  <si>
     <t>Monitoring Location Description</t>
   </si>
   <si>
     <t>MONITOR_LOCATION_DESCRIPTION</t>
   </si>
   <si>
-    <t>Description of the monitoring location at the regulated facility/site.</t>
-  </si>
-  <si>
     <t>Monitoring Location Latitude</t>
   </si>
   <si>
     <t>MONITORING_LATITUDE</t>
   </si>
   <si>
-    <t>Latitude used to map the regulated facility/site monitoring location, expressed in decimal degrees.</t>
-  </si>
-  <si>
     <t>Monitoring Location Longitude</t>
   </si>
   <si>
     <t>MONITORING_LONGITUDE</t>
   </si>
   <si>
-    <t>Longitude used to map the regulated facility/site monitoring location, expressed in decimal degrees.</t>
-  </si>
-  <si>
-    <t>Sample ID Number</t>
-  </si>
-  <si>
     <t>SAMPLE_ID</t>
   </si>
   <si>
@@ -155,18 +120,12 @@
     <t>SAMPLE_DATE</t>
   </si>
   <si>
-    <t>Date the sample was collected a storm event at a specific monitoring location.</t>
-  </si>
-  <si>
     <t>Sample Time</t>
   </si>
   <si>
     <t>SAMPLE_TIME</t>
   </si>
   <si>
-    <t>Time the sample was collected a storm event at a specific monitoring location.</t>
-  </si>
-  <si>
     <t>DISCHARGE_START_DATE</t>
   </si>
   <si>
@@ -212,9 +171,6 @@
     <t>Analytical Method</t>
   </si>
   <si>
-    <t>Analytical test method performed.</t>
-  </si>
-  <si>
     <t>Method Detection Limit</t>
   </si>
   <si>
@@ -242,9 +198,6 @@
     <t>Event Type</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>DISCHARGE_END_DATE</t>
   </si>
   <si>
@@ -281,13 +234,7 @@
     <t>Certified Date</t>
   </si>
   <si>
-    <t>Identification number associated with the report.</t>
-  </si>
-  <si>
     <t>Identification number associated with the sample.</t>
-  </si>
-  <si>
-    <t>The measurement used to address the level of a parameter.</t>
   </si>
   <si>
     <t>Reported analytical result qualifier:
@@ -297,12 +244,165 @@
 - "&gt;": Greater than
 - "&lt;": Less than</t>
   </si>
+  <si>
+    <t>Data Field</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Permit Type</t>
+  </si>
+  <si>
+    <t>Type of permit - industrial, Region 8 CIP, Region 8 SMP, etc.</t>
+  </si>
+  <si>
+    <t>Waste Discharge Identification Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique ID assigned to the discharger for a specified facility/site </t>
+  </si>
+  <si>
+    <t>Application ID</t>
+  </si>
+  <si>
+    <t>Unique ID assigned when an applciation is started</t>
+  </si>
+  <si>
+    <t>Reporting period (occurs between July 1st-June 30th)</t>
+  </si>
+  <si>
+    <t>Unique ID assigned when report is started</t>
+  </si>
+  <si>
+    <t>Type of event - qualifying storm event, non-qualifying storm event, non-stormwater discharge</t>
+  </si>
+  <si>
+    <t>Name of monitoring location</t>
+  </si>
+  <si>
+    <t>Monitoring location/discharge point type</t>
+  </si>
+  <si>
+    <t>Description of monitoring location</t>
+  </si>
+  <si>
+    <t>Monitoring Latitude</t>
+  </si>
+  <si>
+    <t>Monitoring location's latitude</t>
+  </si>
+  <si>
+    <t>Monitoring Longitude</t>
+  </si>
+  <si>
+    <t>Monitoring location's longitude</t>
+  </si>
+  <si>
+    <t>Sample ID</t>
+  </si>
+  <si>
+    <t>Sample Identification number</t>
+  </si>
+  <si>
+    <t>Date when sample was taken</t>
+  </si>
+  <si>
+    <t>Time when sample was taken</t>
+  </si>
+  <si>
+    <t>Start date of discharge</t>
+  </si>
+  <si>
+    <t>Start time of discharge</t>
+  </si>
+  <si>
+    <t>Parameter name</t>
+  </si>
+  <si>
+    <t>Sampling result qualifiers (=, &lt;, &gt;, non-detected, detected not quantifiable)</t>
+  </si>
+  <si>
+    <t>Sample result for parameter</t>
+  </si>
+  <si>
+    <t>Unit measurement used for parameter (mg/L, ug/L, etc.)</t>
+  </si>
+  <si>
+    <t>Analytical method used for sample</t>
+  </si>
+  <si>
+    <t>End date of discharge</t>
+  </si>
+  <si>
+    <t>End time of discharge</t>
+  </si>
+  <si>
+    <t>Unique identification number assigned to the discharger for a specified facility.</t>
+  </si>
+  <si>
+    <t>Application Identification Number</t>
+  </si>
+  <si>
+    <t>Unique identification number associated with a storm water application, used to link the application to inspections, violations, and enforcement actions.</t>
+  </si>
+  <si>
+    <t>Report Identification Number</t>
+  </si>
+  <si>
+    <t>Unique identification number associated with the report.</t>
+  </si>
+  <si>
+    <t>Type of event (e.g., qualifying storm event, non-qualifying storm event, non-stormwater discharge).</t>
+  </si>
+  <si>
+    <t>Name of the monitoring location at the regulated facility.</t>
+  </si>
+  <si>
+    <t>Type of monitoring location at the regulated facility.</t>
+  </si>
+  <si>
+    <t>Description of the monitoring location at the regulated facility.</t>
+  </si>
+  <si>
+    <t>Sample Identification Number</t>
+  </si>
+  <si>
+    <t>Date the sample was collected.</t>
+  </si>
+  <si>
+    <t>Time the sample was collected.</t>
+  </si>
+  <si>
+    <t>The unit of measurement for the result (e.g., mg/L, ug/L, etc.).</t>
+  </si>
+  <si>
+    <t>Analytical test method used for the sample.</t>
+  </si>
+  <si>
+    <t>Name of individual who certified the reported data.</t>
+  </si>
+  <si>
+    <t>Date the reported data was certified.</t>
+  </si>
+  <si>
+    <t>Reporting period that the sample was collected in (reporting period is July 1-June 30).</t>
+  </si>
+  <si>
+    <t>Latitude used to map the monitoring location at the regulated facility, expressed in decimal degrees.</t>
+  </si>
+  <si>
+    <t>Longitude used to map the monitoring location at the regulated facility, expressed in decimal degrees.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,13 +425,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -386,10 +505,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -406,8 +526,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -755,9 +882,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC05117-1A42-4E74-BDC4-6F8548E0C8AB}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -768,419 +895,639 @@
     <col min="2" max="2" width="33.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="58.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A2,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Permit Type</v>
+      </c>
+      <c r="F2" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A2,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Type of permit - industrial, Region 8 CIP, Region 8 SMP, etc.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A3,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Waste Discharge Identification Number</v>
+      </c>
+      <c r="F3" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A3,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v xml:space="preserve">Unique ID assigned to the discharger for a specified facility/site </v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A4,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Application ID</v>
+      </c>
+      <c r="F4" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A4,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Unique ID assigned when an applciation is started</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A5,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Reporting Year</v>
+      </c>
+      <c r="F5" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A5,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Reporting period (occurs between July 1st-June 30th)</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A6,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Report ID</v>
+      </c>
+      <c r="F6" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A6,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Unique ID assigned when report is started</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A7,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Event Type</v>
+      </c>
+      <c r="F7" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A7,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Type of event - qualifying storm event, non-qualifying storm event, non-stormwater discharge</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A8,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Monitoring Location Name</v>
+      </c>
+      <c r="F8" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A8,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Name of monitoring location</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A9,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Monitoring Location Type</v>
+      </c>
+      <c r="F9" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A9,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Monitoring location/discharge point type</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A10,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Monitoring Location Description</v>
+      </c>
+      <c r="F10" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A10,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Description of monitoring location</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A11,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Monitoring Latitude</v>
+      </c>
+      <c r="F11" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A11,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Monitoring location's latitude</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A12,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Monitoring Longitude</v>
+      </c>
+      <c r="F12" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A12,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Monitoring location's longitude</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A13,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Sample ID</v>
+      </c>
+      <c r="F13" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A13,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Sample Identification number</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A14,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Sample Date</v>
+      </c>
+      <c r="F14" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A14,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Date when sample was taken</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A15,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Sample Time</v>
+      </c>
+      <c r="F15" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A15,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Time when sample was taken</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A16,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Discharge Start Date</v>
+      </c>
+      <c r="F16" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A16,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Start date of discharge</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A17,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Discharge Start Time</v>
+      </c>
+      <c r="F17" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A17,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Start time of discharge</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A18,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Parameter</v>
+      </c>
+      <c r="F18" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A18,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Parameter name</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A19,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Result Qualifier</v>
+      </c>
+      <c r="F19" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A19,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Sampling result qualifiers (=, &lt;, &gt;, non-detected, detected not quantifiable)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A20,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Result</v>
+      </c>
+      <c r="F20" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A20,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Sample result for parameter</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A21,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Units</v>
+      </c>
+      <c r="F21" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A21,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Unit measurement used for parameter (mg/L, ug/L, etc.)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A22,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Analytical Method</v>
+      </c>
+      <c r="F22" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A22,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Analytical method used for sample</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="E23" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A23,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Method Detection Limit</v>
+      </c>
+      <c r="F23" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A23,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Method Detection Limit</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="E24" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A24,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Reporting Limit</v>
+      </c>
+      <c r="F24" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A24,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Reporting Limit</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A25,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Discharge End Date</v>
+      </c>
+      <c r="F25" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A25,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>End date of discharge</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E26" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A26,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>Discharge End Time</v>
+      </c>
+      <c r="F26" t="str">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A26,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>End time of discharge</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="e">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A27,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F27" t="e">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A27,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="e">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!B:B,MATCH($A28,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F28" t="e">
+        <f>INDEX(Ind_Ad_Hoc_SMARTS!C:C,MATCH($A28,Ind_Ad_Hoc_SMARTS!$A:$A,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="4"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="4"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="4"/>
@@ -1266,4 +1613,331 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85CED14-C72F-4CD5-9D2D-89EA6B28B332}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="82.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>